--- a/allScouts.xlsx
+++ b/allScouts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asr31\Documents\GitHub\pesmobile_bluestacks_pyautogui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB752E1-02AF-4268-8DD2-C971D0234FF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFAEAF6-8E6D-4214-8A50-FDA2B42B62CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="0" windowWidth="28260" windowHeight="12810" xr2:uid="{E9352122-6993-43C4-A58C-32BB48012C89}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Other (Europe)</t>
   </si>
@@ -200,13 +200,117 @@
   <si>
     <t>Right foot</t>
   </si>
+  <si>
+    <t>2 letters</t>
+  </si>
+  <si>
+    <t>1 letter</t>
+  </si>
+  <si>
+    <t>check FREEAGENT</t>
+  </si>
+  <si>
+    <t>Upto 1st bracket term</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Drib</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>K Aw</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>flex</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Po</t>
+  </si>
+  <si>
+    <t>trol</t>
+  </si>
+  <si>
+    <t>fted</t>
+  </si>
+  <si>
+    <t>ow P</t>
+  </si>
+  <si>
+    <t>eft f</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Phy</t>
+  </si>
+  <si>
+    <t>lace K</t>
+  </si>
+  <si>
+    <t>Righ</t>
+  </si>
+  <si>
+    <t>peed</t>
+  </si>
+  <si>
+    <t>Stam</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Util</t>
+  </si>
+  <si>
+    <t>USE COLOURS AT ALL TIMES</t>
+  </si>
+  <si>
+    <t>First Letter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -222,6 +326,28 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,12 +369,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,226 +699,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2334F5-37B0-42FC-B6A3-5B3D3A1EDA71}">
-  <dimension ref="A1:D4356"/>
+  <dimension ref="A1:F4356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>88</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+      <c r="E12" s="4" t="s">
+        <v>59</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
+      <c r="B13" t="s">
+        <v>68</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
+      <c r="E13" s="5" t="s">
+        <v>60</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
+      <c r="B15" t="s">
+        <v>70</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>44</v>
+      <c r="B16" t="s">
+        <v>71</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -792,70 +991,109 @@
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
     </row>
@@ -13848,6 +14086,12 @@
       <c r="D4356" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A1:A4356">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/allScouts.xlsx
+++ b/allScouts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asr31\Documents\GitHub\pesmobile_bluestacks_pyautogui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFAEAF6-8E6D-4214-8A50-FDA2B42B62CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76497DBC-2D6F-47D9-B679-5B5950B1FDAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="0" windowWidth="28260" windowHeight="12810" xr2:uid="{E9352122-6993-43C4-A58C-32BB48012C89}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Other (Europe)</t>
   </si>
@@ -210,9 +210,6 @@
     <t>check FREEAGENT</t>
   </si>
   <si>
-    <t>Upto 1st bracket term</t>
-  </si>
-  <si>
     <t>Ac</t>
   </si>
   <si>
@@ -295,6 +292,15 @@
   </si>
   <si>
     <t>First Letter</t>
+  </si>
+  <si>
+    <t>(Latin</t>
+  </si>
+  <si>
+    <t>league\n(Eurp</t>
+  </si>
+  <si>
+    <t>league\n(Asia)</t>
   </si>
 </sst>
 </file>
@@ -699,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2334F5-37B0-42FC-B6A3-5B3D3A1EDA71}">
-  <dimension ref="A1:F4356"/>
+  <dimension ref="A1:G4356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,12 +717,13 @@
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>26</v>
@@ -724,11 +731,11 @@
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -736,11 +743,11 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -753,11 +760,11 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -770,11 +777,11 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -787,16 +794,13 @@
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -804,16 +808,16 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>0</v>
+      <c r="G6" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -821,16 +825,14 @@
       <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -838,16 +840,13 @@
       <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -855,16 +854,13 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -874,52 +870,60 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>59</v>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>60</v>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>58</v>
@@ -927,32 +931,37 @@
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
+      <c r="E16" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -962,7 +971,7 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -972,7 +981,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -982,7 +991,7 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -992,7 +1001,7 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -1002,7 +1011,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -1012,7 +1021,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -1022,7 +1031,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1032,7 +1041,7 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -1042,7 +1051,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -1052,7 +1061,7 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -1062,7 +1071,7 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -1072,7 +1081,7 @@
         <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
@@ -1082,7 +1091,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -1092,7 +1101,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>

--- a/allScouts.xlsx
+++ b/allScouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asr31\Documents\GitHub\pesmobile_bluestacks_pyautogui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76497DBC-2D6F-47D9-B679-5B5950B1FDAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628CE19F-1191-4070-9591-C73C85E72147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="0" windowWidth="28260" windowHeight="12810" xr2:uid="{E9352122-6993-43C4-A58C-32BB48012C89}"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="28260" windowHeight="12810" xr2:uid="{E9352122-6993-43C4-A58C-32BB48012C89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Other (Europe)</t>
   </si>
@@ -249,9 +249,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>Po</t>
-  </si>
-  <si>
     <t>trol</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>Util</t>
-  </si>
-  <si>
     <t>USE COLOURS AT ALL TIMES</t>
   </si>
   <si>
@@ -302,12 +296,15 @@
   <si>
     <t>league\n(Asia)</t>
   </si>
+  <si>
+    <t>Ki</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +352,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -377,19 +402,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2334F5-37B0-42FC-B6A3-5B3D3A1EDA71}">
-  <dimension ref="A1:G4356"/>
+  <dimension ref="A1:I4356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,11 +749,11 @@
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>87</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>85</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -735,9 +763,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -747,14 +775,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
-      <c r="B3">
-        <v>18</v>
+      <c r="B3" t="s">
+        <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -764,14 +792,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
-      <c r="B4">
-        <v>25</v>
+      <c r="B4" t="s">
+        <v>74</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -781,224 +809,245 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
-      <c r="B5">
-        <v>30</v>
+      <c r="B5" t="s">
+        <v>63</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>88</v>
+      <c r="G6" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>91</v>
+      <c r="F11" s="4" t="s">
+        <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>90</v>
+      <c r="F12" s="4" t="s">
+        <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>89</v>
+      <c r="F13" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -1008,101 +1057,77 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>83</v>
-      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
     </row>

--- a/allScouts.xlsx
+++ b/allScouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asr31\Documents\GitHub\pesmobile_bluestacks_pyautogui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628CE19F-1191-4070-9591-C73C85E72147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4DB3C8-B837-489F-A0D1-B1DB541CFC80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="28260" windowHeight="12810" xr2:uid="{E9352122-6993-43C4-A58C-32BB48012C89}"/>
+    <workbookView xWindow="2160" yWindow="0" windowWidth="28260" windowHeight="12810" xr2:uid="{E9352122-6993-43C4-A58C-32BB48012C89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
   <si>
     <t>Other (Europe)</t>
   </si>
@@ -195,125 +195,132 @@
     <t>Kicking Power</t>
   </si>
   <si>
-    <t>185cm or more</t>
-  </si>
-  <si>
     <t>Right foot</t>
   </si>
   <si>
-    <t>2 letters</t>
+    <t>Free Agent</t>
   </si>
   <si>
-    <t>1 letter</t>
+    <t>Americas</t>
   </si>
   <si>
-    <t>check FREEAGENT</t>
+    <t>France</t>
   </si>
   <si>
-    <t>Ac</t>
+    <t>Italy</t>
   </si>
   <si>
-    <t>Cu</t>
+    <t>Spain</t>
   </si>
   <si>
-    <t>Win</t>
+    <t>Argentina</t>
   </si>
   <si>
-    <t>Def</t>
+    <t>Brazil</t>
   </si>
   <si>
-    <t>Drib</t>
+    <t>Chile</t>
   </si>
   <si>
-    <t>Fin</t>
+    <t>Netherlands</t>
   </si>
   <si>
-    <t>K Aw</t>
+    <t>England</t>
   </si>
   <si>
-    <t>Cat</t>
+    <t>Portugal</t>
   </si>
   <si>
-    <t>Cl</t>
+    <t>Excel Database</t>
   </si>
   <si>
-    <t>Re</t>
+    <t>In Game</t>
   </si>
   <si>
-    <t>flex</t>
+    <t>Looking For</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>trol</t>
-  </si>
-  <si>
-    <t>fted</t>
-  </si>
-  <si>
-    <t>ow P</t>
-  </si>
-  <si>
-    <t>eft f</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>Phy</t>
-  </si>
-  <si>
-    <t>lace K</t>
-  </si>
-  <si>
-    <t>Righ</t>
-  </si>
-  <si>
-    <t>peed</t>
-  </si>
-  <si>
-    <t>Stam</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>USE COLOURS AT ALL TIMES</t>
-  </si>
-  <si>
-    <t>First Letter</t>
+    <t>Oceania</t>
   </si>
   <si>
     <t>(Latin</t>
   </si>
   <si>
-    <t>league\n(Eurp</t>
+    <t>[Latin</t>
   </si>
   <si>
-    <t>league\n(Asia)</t>
+    <t>(Asia</t>
   </si>
   <si>
-    <t>Ki</t>
+    <t>[Asia</t>
+  </si>
+  <si>
+    <t>[Europe</t>
+  </si>
+  <si>
+    <t>(Europe</t>
+  </si>
+  <si>
+    <t>Defensive</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Kicking</t>
+  </si>
+  <si>
+    <t>Lofted</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Winning</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>185cm or Taller</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>Tactics</t>
+  </si>
+  <si>
+    <t>Favourite Tactics</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>&lt;---Look for this first so u don’t conflict with Area Europe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -345,15 +352,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="4" tint="0.39997558519241921"/>
       <name val="Arial"/>
@@ -368,28 +366,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -397,33 +408,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -735,512 +864,794 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2334F5-37B0-42FC-B6A3-5B3D3A1EDA71}">
   <dimension ref="A1:I4356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="D2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="H10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="8">
-        <v>18</v>
-      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="8">
-        <v>25</v>
-      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="8">
-        <v>30</v>
-      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>87</v>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="10">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="12">
+        <v>185</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="13">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
@@ -14123,9 +14534,32 @@
   <sortState ref="A1:A4356">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="E54:G54"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"―"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"―"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"―"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"―"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
